--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19100" windowHeight="7680" firstSheet="5" activeTab="8"/>
+    <workbookView windowWidth="19100" windowHeight="7680" firstSheet="1" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="award" sheetId="1" r:id="rId1"/>
@@ -16,6 +16,7 @@
     <sheet name="electronic" sheetId="7" r:id="rId7"/>
     <sheet name="executive" sheetId="8" r:id="rId8"/>
     <sheet name="games" sheetId="9" r:id="rId9"/>
+    <sheet name="Sheet2" sheetId="11" r:id="rId10"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
@@ -281,10 +282,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -303,8 +304,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -318,7 +327,44 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -333,16 +379,8 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -356,18 +394,19 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="13"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -378,9 +417,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -401,43 +439,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -448,18 +449,144 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -472,36 +599,30 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -509,126 +630,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -645,32 +646,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -701,21 +678,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -739,12 +701,51 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -762,130 +763,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1217,8 +1218,8 @@
   <sheetPr/>
   <dimension ref="A1:A25"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5"/>
@@ -1346,6 +1347,627 @@
     <row r="25" spans="1:1">
       <c r="A25" t="s">
         <v>24</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A12" r:id="rId1" display="http://natico.espwebsite.com/ProductDetails/?productId=6783775"/>
+    <hyperlink ref="A11" r:id="rId2" display="http://natico.espwebsite.com/ProductDetails/?productId=6783782"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:A120"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
+      <selection activeCell="A110" sqref="A110:A120"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1">
+      <c r="A39" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1">
+      <c r="A40" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1">
+      <c r="A41" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1">
+      <c r="A42" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1">
+      <c r="A43" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1">
+      <c r="A44" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1">
+      <c r="A45" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1">
+      <c r="A46" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1">
+      <c r="A47" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1">
+      <c r="A48" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1">
+      <c r="A49" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1">
+      <c r="A50" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1">
+      <c r="A51" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1">
+      <c r="A52" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1">
+      <c r="A53" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1">
+      <c r="A54" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1">
+      <c r="A55" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1">
+      <c r="A56" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1">
+      <c r="A57" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1">
+      <c r="A58" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1">
+      <c r="A59" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1">
+      <c r="A60" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1">
+      <c r="A61" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1">
+      <c r="A62" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1">
+      <c r="A63" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1">
+      <c r="A64" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1">
+      <c r="A65" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1">
+      <c r="A66" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1">
+      <c r="A67" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1">
+      <c r="A68" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1">
+      <c r="A69" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1">
+      <c r="A70" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1">
+      <c r="A71" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1">
+      <c r="A72" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1">
+      <c r="A73" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1">
+      <c r="A74" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1">
+      <c r="A75" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1">
+      <c r="A76" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1">
+      <c r="A77" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1">
+      <c r="A78" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1">
+      <c r="A79" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1">
+      <c r="A80" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1">
+      <c r="A81" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1">
+      <c r="A82" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1">
+      <c r="A83" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1">
+      <c r="A84" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1">
+      <c r="A85" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1">
+      <c r="A86" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1">
+      <c r="A87" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1">
+      <c r="A88" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1">
+      <c r="A89" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1">
+      <c r="A90" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1">
+      <c r="A91" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1">
+      <c r="A92" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1">
+      <c r="A93" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1">
+      <c r="A94" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1">
+      <c r="A95" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1">
+      <c r="A96" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1">
+      <c r="A97" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1">
+      <c r="A98" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1">
+      <c r="A99" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1">
+      <c r="A100" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1">
+      <c r="A101" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1">
+      <c r="A102" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1">
+      <c r="A103" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1">
+      <c r="A104" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1">
+      <c r="A105" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1">
+      <c r="A106" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1">
+      <c r="A107" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1">
+      <c r="A108" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1">
+      <c r="A109" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1">
+      <c r="A110" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1">
+      <c r="A111" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1">
+      <c r="A112" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1">
+      <c r="A113" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1">
+      <c r="A114" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1">
+      <c r="A115" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1">
+      <c r="A116" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1">
+      <c r="A117" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1">
+      <c r="A118" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1">
+      <c r="A119" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1">
+      <c r="A120" t="s">
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -1363,8 +1985,8 @@
   <sheetPr/>
   <dimension ref="A1:A13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5"/>
@@ -1446,7 +2068,7 @@
   <dimension ref="A1:A6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A1" sqref="A1:A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelRow="5"/>
@@ -1492,8 +2114,8 @@
   <sheetPr/>
   <dimension ref="A1:A33"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A33" sqref="A33"/>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:A33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5"/>
@@ -1675,7 +2297,7 @@
   <dimension ref="A1:A17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+      <selection activeCell="A1" sqref="A1:A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5"/>
@@ -1777,7 +2399,7 @@
   <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A1" sqref="A1:A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelRow="3"/>
@@ -1814,7 +2436,7 @@
   <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A1" sqref="A1:A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelRow="2"/>
@@ -1846,7 +2468,7 @@
   <dimension ref="A1:A8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="A1" sqref="A1:A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelRow="7"/>
@@ -1902,8 +2524,8 @@
   <sheetPr/>
   <dimension ref="A1:A11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5"/>
